--- a/movies.xlsx
+++ b/movies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lithi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lithi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF52F52-8236-4CA6-93FF-8EAE8F3DAF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716618AB-3B56-4228-8112-D137DE8395A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="2100" windowWidth="5532" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>pathu thala</t>
   </si>
@@ -43,6 +43,207 @@
   </si>
   <si>
     <t>vikram</t>
+  </si>
+  <si>
+    <t>jai bhim</t>
+  </si>
+  <si>
+    <t>thalaivi</t>
+  </si>
+  <si>
+    <t>rrr</t>
+  </si>
+  <si>
+    <t>radhe shyam</t>
+  </si>
+  <si>
+    <t>sita ramam</t>
+  </si>
+  <si>
+    <t>bimbisara</t>
+  </si>
+  <si>
+    <t>beast</t>
+  </si>
+  <si>
+    <t>love today</t>
+  </si>
+  <si>
+    <t>don</t>
+  </si>
+  <si>
+    <t>cobra</t>
+  </si>
+  <si>
+    <t>Naane Varuvean</t>
+  </si>
+  <si>
+    <t>Kaathuvaakula Rendu Kaadhal</t>
+  </si>
+  <si>
+    <t>dasara</t>
+  </si>
+  <si>
+    <t>bro</t>
+  </si>
+  <si>
+    <t>salaar</t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>hi nanna</t>
+  </si>
+  <si>
+    <t>kushi</t>
+  </si>
+  <si>
+    <t>jailer</t>
+  </si>
+  <si>
+    <t>leo</t>
+  </si>
+  <si>
+    <t>ponniyin selvan 2</t>
+  </si>
+  <si>
+    <t>vivegam</t>
+  </si>
+  <si>
+    <t>dada</t>
+  </si>
+  <si>
+    <t>good night</t>
+  </si>
+  <si>
+    <t>pushpa</t>
+  </si>
+  <si>
+    <t>jawaan</t>
+  </si>
+  <si>
+    <t>bhairavam</t>
+  </si>
+  <si>
+    <t>mazaka</t>
+  </si>
+  <si>
+    <t>peddi</t>
+  </si>
+  <si>
+    <t>robinhood</t>
+  </si>
+  <si>
+    <t>thug life</t>
+  </si>
+  <si>
+    <t>retro</t>
+  </si>
+  <si>
+    <t>vidamuyarchi</t>
+  </si>
+  <si>
+    <t>jana nayagan</t>
+  </si>
+  <si>
+    <t>amaran</t>
+  </si>
+  <si>
+    <t>kanguva</t>
+  </si>
+  <si>
+    <t>raayan</t>
+  </si>
+  <si>
+    <t>indian 2</t>
+  </si>
+  <si>
+    <t>coolie</t>
+  </si>
+  <si>
+    <t>goat</t>
+  </si>
+  <si>
+    <t>meiyazhagan</t>
+  </si>
+  <si>
+    <t>captain miller</t>
+  </si>
+  <si>
+    <t>maaveeran</t>
+  </si>
+  <si>
+    <t>vaathi</t>
+  </si>
+  <si>
+    <t>varisu</t>
+  </si>
+  <si>
+    <t>thangalaan</t>
+  </si>
+  <si>
+    <t>mark antony</t>
+  </si>
+  <si>
+    <t>thunivu</t>
+  </si>
+  <si>
+    <t>prince</t>
+  </si>
+  <si>
+    <t>sardar</t>
+  </si>
+  <si>
+    <t>naane varuvean</t>
+  </si>
+  <si>
+    <t>thiruchitrambalam</t>
+  </si>
+  <si>
+    <t>viruman</t>
+  </si>
+  <si>
+    <t>kgf</t>
+  </si>
+  <si>
+    <t>maaran</t>
+  </si>
+  <si>
+    <t>kaathu vaakula rendu kadhal</t>
+  </si>
+  <si>
+    <t>valimai</t>
+  </si>
+  <si>
+    <t>etharkkum thunindhavan</t>
+  </si>
+  <si>
+    <t>annaatthe</t>
+  </si>
+  <si>
+    <t>laabam</t>
+  </si>
+  <si>
+    <t>aalambana</t>
+  </si>
+  <si>
+    <t>vendhu thanindhathu kaadu</t>
+  </si>
+  <si>
+    <t>netrikann</t>
+  </si>
+  <si>
+    <t>karnan</t>
+  </si>
+  <si>
+    <t>ayalaan</t>
+  </si>
+  <si>
+    <t>kingdom</t>
+  </si>
+  <si>
+    <t>game changer</t>
   </si>
 </sst>
 </file>
@@ -360,13 +561,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -398,6 +602,341 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
